--- a/EUC_Perth_Assets.xlsx
+++ b/EUC_Perth_Assets.xlsx
@@ -268,7 +268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
@@ -2947,6 +2947,138 @@
         </is>
       </c>
       <c r="D149" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>SAN105223</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:37:39</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>SAN105224</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:37:42</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>SAN105221</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:47:41</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>SAN105222</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:47:47</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>SAN106335</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:51:28</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>SAN106336</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:51:36</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
@@ -3947,7 +4079,6 @@
           <t>subtract 2</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4598,10 +4729,10 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -4662,10 +4793,10 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" t="n">
         <v>30</v>
@@ -4694,10 +4825,10 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>10</v>
@@ -4742,10 +4873,10 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4822,10 +4953,10 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" t="n">
         <v>20</v>
@@ -4883,7 +5014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -5906,16 +6037,201 @@
         </is>
       </c>
     </row>
-    <row r="52" ht="12" customHeight="1"/>
-    <row r="53" ht="12" customHeight="1"/>
-    <row r="54" ht="12" customHeight="1"/>
-    <row r="55" ht="12" customHeight="1"/>
-    <row r="56" ht="12" customHeight="1"/>
-    <row r="57" ht="12" customHeight="1"/>
-    <row r="58" ht="12" customHeight="1"/>
-    <row r="59" ht="12" customHeight="1"/>
-    <row r="60" ht="12" customHeight="1"/>
-    <row r="61" ht="12" customHeight="1"/>
+    <row r="52" ht="12" customHeight="1">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:37:16</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monitor 24” </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>add 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="12" customHeight="1">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:46:53</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Laptop Bag</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>subtract 25</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54" ht="12" customHeight="1">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:46:58</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Wired Mouse</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55" ht="12" customHeight="1">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:47:41</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>SAN105221</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="12" customHeight="1">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:47:47</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>SAN105222</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="12" customHeight="1">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:47:48</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+    </row>
+    <row r="58" ht="12" customHeight="1">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:51:15</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Laptop Bag</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>subtract 20</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+    </row>
+    <row r="59" ht="12" customHeight="1">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:51:28</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>SAN106335</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="12" customHeight="1">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:51:36</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>SAN106336</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="12" customHeight="1">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:51:36</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+    </row>
     <row r="62" ht="12" customHeight="1"/>
     <row r="63" ht="12" customHeight="1"/>
     <row r="64" ht="12" customHeight="1"/>
@@ -6245,10 +6561,10 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>30</v>
@@ -6321,10 +6637,10 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -6393,10 +6709,10 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
         <v>20</v>
@@ -6451,7 +6767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F1048576"/>
@@ -7069,7 +7385,102 @@
           <t>add 3</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:37:27</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Wired Mouse</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>subtract 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:37:39</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SAN105223</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:37:42</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>SAN105224</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:37:42</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-06-28 11:51:46</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monitor 24” </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>add 50</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="1048576" ht="12.75" customHeight="1"/>
   </sheetData>

--- a/EUC_Perth_Assets.xlsx
+++ b/EUC_Perth_Assets.xlsx
@@ -268,7 +268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
@@ -3081,6 +3081,292 @@
       <c r="D155" t="inlineStr">
         <is>
           <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>SAN108852</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:55:39</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>SAN108853</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:55:48</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>SAN102152</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:59:43</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>SAN102102</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:59:49</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>SAN102103</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:02:31</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>SAN102104</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:02:34</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>SAN103666</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:07:00</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>SAN103667</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:07:04</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>SAN103668</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:07:11</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>SAN104402</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:10:37</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>SAN104403</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:10:41</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>SAN104404</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:10:52</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>SAN104405</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:10:54</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>BR</t>
         </is>
       </c>
     </row>
@@ -4729,10 +5015,10 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -4793,10 +5079,10 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6" t="n">
         <v>30</v>
@@ -4825,10 +5111,10 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
         <v>10</v>
@@ -4857,7 +5143,7 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>22</v>
@@ -4873,10 +5159,10 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4953,10 +5239,10 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D16" t="n">
         <v>20</v>
@@ -5014,7 +5300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -6070,7 +6356,6 @@
           <t>subtract 25</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
     </row>
     <row r="54" ht="12" customHeight="1">
       <c r="A54" t="inlineStr">
@@ -6088,7 +6373,6 @@
           <t>add 2</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55" ht="12" customHeight="1">
       <c r="A55" t="inlineStr">
@@ -6150,7 +6434,6 @@
           <t>add 2</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58" ht="12" customHeight="1">
       <c r="A58" t="inlineStr">
@@ -6168,7 +6451,6 @@
           <t>subtract 20</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59" ht="12" customHeight="1">
       <c r="A59" t="inlineStr">
@@ -6230,18 +6512,203 @@
           <t>add 2</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
-    </row>
-    <row r="62" ht="12" customHeight="1"/>
-    <row r="63" ht="12" customHeight="1"/>
-    <row r="64" ht="12" customHeight="1"/>
-    <row r="65" ht="12" customHeight="1"/>
-    <row r="66" ht="12" customHeight="1"/>
-    <row r="67" ht="12" customHeight="1"/>
-    <row r="68" ht="12" customHeight="1"/>
-    <row r="69" ht="12" customHeight="1"/>
-    <row r="70" ht="12" customHeight="1"/>
-    <row r="71" ht="12" customHeight="1"/>
+    </row>
+    <row r="62" ht="12" customHeight="1">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:52:48</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Laptop Bag</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>add 10</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+    </row>
+    <row r="63" ht="12" customHeight="1">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:59:43</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>SAN102152</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="12" customHeight="1">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:59:49</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>SAN102102</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="12" customHeight="1">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:59:49</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+    </row>
+    <row r="66" ht="12" customHeight="1">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:02:21</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Wired Mouse</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>add 3</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+    </row>
+    <row r="67" ht="12" customHeight="1">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:02:31</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>SAN102103</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="12" customHeight="1">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:02:34</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>SAN102104</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="12" customHeight="1">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:02:34</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+    </row>
+    <row r="70" ht="12" customHeight="1">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:06:44</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Laptop Bag</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>add 12</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+    </row>
+    <row r="71" ht="12" customHeight="1">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:10:12</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monitor 24” </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>subtract 3</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+    </row>
     <row r="72" ht="12" customHeight="1"/>
     <row r="73" ht="12" customHeight="1"/>
     <row r="74" ht="12" customHeight="1"/>
@@ -6500,7 +6967,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -6561,10 +7028,10 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
         <v>30</v>
@@ -6592,8 +7059,12 @@
           <t>Laptop Bag</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n"/>
+      <c r="B8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>25</v>
+      </c>
       <c r="D8" t="n">
         <v>10</v>
       </c>
@@ -6624,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -6637,10 +7108,10 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -6652,8 +7123,12 @@
           <t>Monitor 34” Ultrawide</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n"/>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>5</v>
+      </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
@@ -6693,10 +7168,10 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
         <v>20</v>
@@ -6767,7 +7242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F1048576"/>
@@ -7480,7 +7955,330 @@
           <t>add 50</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:55:27</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Laptop Bag</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>add 25</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:55:39</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SAN108852</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:55:48</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SAN108853</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-06-28 12:55:48</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:02:14</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monitor 24” </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>subtract 25</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:06:51</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Monitor 34” Ultrawide</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>add 5</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:07:00</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>SAN103666</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:07:04</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>SAN103667</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:07:11</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>SAN103668</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:07:11</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>add 3</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:10:22</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Wired Keyboard</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>add 3</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:10:37</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>SAN104402</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:10:41</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>SAN104403</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:10:52</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>SAN104404</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:10:54</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>SAN104405</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-06-28 13:10:55</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>add 4</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
     </row>
     <row r="1048576" ht="12.75" customHeight="1"/>
   </sheetData>
